--- a/docs/indv-measurereport-deqm.xlsx
+++ b/docs/indv-measurereport-deqm.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="346">
   <si>
     <t>Path</t>
   </si>
@@ -813,6 +813,141 @@
   </si>
   <si>
     <t>For individual reporting, the measure score is calculated for the individual. For a proportion measure, it would be 0.0 or 1.0 (indicating 0% or 100%).</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.extension</t>
+  </si>
+  <si>
+    <t>altscoretype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/extension-alternateScoreType}
+</t>
+  </si>
+  <si>
+    <t>Possible additional measureScore value types</t>
+  </si>
+  <si>
+    <t>Possible value types for the measureScore elements *in addition to* the standard [Quantity](http://hl7.org/fhir/STU3/datatypes.html#quantity) type. The alternate type is determined by the Quality Measure [Aggregate Method](http://hl7.org/fhir/us/cqfmeasures/2019May/StructureDefinition-cqfm-aggregateMethod.html) extension used on the Measure.   The reported type of the measureScore for continuous variable measures is determined by the result type of the aggregate method operation.</t>
+  </si>
+  <si>
+    <t>This extension corresponds to the additional MeasureScore type added to the R5 version of MeasureReport.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.0</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>MeasureReport.group.stratifier</t>
@@ -1109,7 +1244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK68"/>
+  <dimension ref="A1:AK76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1154,7 +1289,7 @@
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="66.50390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5665,7 +5800,7 @@
         <v>39</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>38</v>
@@ -5677,13 +5812,13 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>255</v>
+        <v>109</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5734,41 +5869,41 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>253</v>
+        <v>110</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>38</v>
@@ -5780,15 +5915,17 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>38</v>
@@ -5825,25 +5962,25 @@
         <v>38</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>38</v>
@@ -5858,23 +5995,25 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="C46" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -5883,16 +6022,16 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>256</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -5960,47 +6099,47 @@
         <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>38</v>
@@ -6049,13 +6188,13 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>38</v>
@@ -6067,12 +6206,12 @@
         <v>38</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>88</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6083,32 +6222,36 @@
         <v>39</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="Q48" t="s" s="2">
         <v>38</v>
       </c>
@@ -6128,13 +6271,13 @@
         <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>38</v>
@@ -6152,13 +6295,13 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>38</v>
@@ -6170,12 +6313,12 @@
         <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6186,7 +6329,7 @@
         <v>39</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>38</v>
@@ -6195,19 +6338,21 @@
         <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>38</v>
       </c>
@@ -6255,30 +6400,30 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>38</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6298,19 +6443,21 @@
         <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>38</v>
       </c>
@@ -6358,7 +6505,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6367,7 +6514,7 @@
         <v>46</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
@@ -6376,23 +6523,23 @@
         <v>38</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>111</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>38</v>
@@ -6401,21 +6548,23 @@
         <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>114</v>
+        <v>291</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>38</v>
       </c>
@@ -6463,13 +6612,13 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>118</v>
+        <v>295</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>38</v>
@@ -6481,16 +6630,16 @@
         <v>38</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>111</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6503,26 +6652,22 @@
         <v>38</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>38</v>
       </c>
@@ -6570,7 +6715,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6582,18 +6727,18 @@
         <v>38</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6616,13 +6761,13 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6673,7 +6818,7 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
@@ -6691,16 +6836,16 @@
         <v>38</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -6719,15 +6864,17 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>38</v>
@@ -6776,7 +6923,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -6788,50 +6935,54 @@
         <v>38</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>38</v>
       </c>
@@ -6879,13 +7030,13 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>38</v>
@@ -6897,16 +7048,16 @@
         <v>38</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -6925,17 +7076,15 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>38</v>
@@ -6984,7 +7133,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -7002,16 +7151,16 @@
         <v>38</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7024,26 +7173,22 @@
         <v>38</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>38</v>
       </c>
@@ -7091,7 +7236,7 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
@@ -7103,18 +7248,18 @@
         <v>38</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7122,7 +7267,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>46</v>
@@ -7137,13 +7282,13 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>279</v>
+        <v>109</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7194,10 +7339,10 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>277</v>
+        <v>110</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>46</v>
@@ -7212,23 +7357,23 @@
         <v>38</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>38</v>
@@ -7240,15 +7385,17 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>281</v>
+        <v>114</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>38</v>
@@ -7297,13 +7444,13 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>280</v>
+        <v>118</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>38</v>
@@ -7315,16 +7462,16 @@
         <v>38</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7337,22 +7484,26 @@
         <v>38</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>38</v>
       </c>
@@ -7400,7 +7551,7 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
@@ -7412,18 +7563,18 @@
         <v>38</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7446,13 +7597,13 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>108</v>
+        <v>313</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>109</v>
+        <v>314</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7503,7 +7654,7 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
@@ -7521,16 +7672,16 @@
         <v>38</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7549,17 +7700,15 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>114</v>
+        <v>316</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>38</v>
@@ -7608,7 +7757,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>118</v>
+        <v>315</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7620,54 +7769,50 @@
         <v>38</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>38</v>
       </c>
@@ -7715,13 +7860,13 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>38</v>
@@ -7733,23 +7878,23 @@
         <v>38</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>38</v>
@@ -7761,15 +7906,17 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>38</v>
@@ -7794,13 +7941,13 @@
         <v>38</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>38</v>
@@ -7818,13 +7965,13 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>38</v>
@@ -7836,44 +7983,48 @@
         <v>38</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>241</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>38</v>
       </c>
@@ -7921,13 +8072,13 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>38</v>
@@ -7939,12 +8090,12 @@
         <v>38</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7952,7 +8103,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>46</v>
@@ -7967,13 +8118,13 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8024,10 +8175,10 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>46</v>
@@ -8047,7 +8198,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8055,7 +8206,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>46</v>
@@ -8070,13 +8221,13 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8127,10 +8278,10 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>46</v>
@@ -8148,9 +8299,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8164,7 +8315,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -8173,18 +8324,16 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>301</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>38</v>
       </c>
@@ -8232,7 +8381,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
@@ -8244,17 +8393,849 @@
         <v>38</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK68">
+  <autoFilter ref="A1:AK76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8264,7 +9245,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/indv-measurereport-deqm.xlsx
+++ b/docs/indv-measurereport-deqm.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="345">
   <si>
     <t>Path</t>
   </si>
@@ -147,7 +147,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}mrp-2:Stratifiers SHALL be either a single criteria or a set of criteria components {group.stratifier.stratum.all(value.exists() xor component.exists())}mrp-1:Measure Reports used for data collection SHALL NOT communicate group and score information {(type != 'data-collection') or group.exists().not()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mrp-1:Measure Reports used for data collection SHALL NOT communicate group and score information {(type != 'data-collection') or group.exists().not()}mrp-2:Stratifiers SHALL be either a single criteria or a set of criteria components {group.stratifier.stratum.all(value.exists() xor component.exists())}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -162,7 +162,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -194,6 +194,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>MeasureReport.implicitRules</t>
   </si>
   <si>
@@ -316,6 +320,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>vendor</t>
   </si>
   <si>
@@ -333,10 +341,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>cehrt</t>
   </si>
   <si>
@@ -351,10 +355,6 @@
   </si>
   <si>
     <t>MeasureReport.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -492,7 +492,7 @@
     <t>The status of the measure report.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-report-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/measure-report-status|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.status</t>
@@ -519,7 +519,7 @@
     <t>The type of the measure report.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-report-type|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/measure-report-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">mrp-1
@@ -613,8 +613,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">deqm-1:Date precision SHALL  be at least to day ( YYYY-MM-DD ) {start.matches('^([0-9]{4})(-)(1[0-2]|0[1-9])-(3[01]|0[1-9]|[12][0-9])') and end.matches('^([0-9]{4})(-)(1[0-2]|0[1-9])-(3[01]|0[1-9]|[12][0-9])')}
-</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+deqm-1:Date precision SHALL  be at least to day ( YYYY-MM-DD ) {start.matches('^([0-9]{4})(-)(1[0-2]|0[1-9])-(3[01]|0[1-9]|[12][0-9])') and end.matches('^([0-9]{4})(-)(1[0-2]|0[1-9])-(3[01]|0[1-9]|[12][0-9])')}</t>
   </si>
   <si>
     <t>MeasureReport.period.id</t>
@@ -685,7 +685,7 @@
     <t>Observation values that indicate what change in a measurement value or score is indicative of an improvement in the measured item or scored issue.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-improvement-notation|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/measure-improvement-notation|4.0.1</t>
   </si>
   <si>
     <t>MeasureReport.group</t>
@@ -701,10 +701,6 @@
     <t>The results of the calculation, one for each population group in the measure.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>MeasureReport.group.id</t>
   </si>
   <si>
@@ -880,7 +876,7 @@
     <t>How the Quantity should be understood and represented.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1707,7 +1703,7 @@
         <v>38</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>38</v>
@@ -1718,7 +1714,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1741,16 +1737,16 @@
         <v>47</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1800,7 +1796,7 @@
         <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>39</v>
@@ -1812,7 +1808,7 @@
         <v>38</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>38</v>
@@ -1823,7 +1819,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1846,16 +1842,16 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1881,13 +1877,13 @@
         <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>38</v>
@@ -1905,7 +1901,7 @@
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>39</v>
@@ -1917,7 +1913,7 @@
         <v>38</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>38</v>
@@ -1928,11 +1924,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1951,16 +1947,16 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2010,7 +2006,7 @@
         <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>39</v>
@@ -2022,22 +2018,22 @@
         <v>38</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2056,16 +2052,16 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2115,7 +2111,7 @@
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>39</v>
@@ -2133,12 +2129,12 @@
         <v>38</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2161,13 +2157,13 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2206,17 +2202,17 @@
         <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>39</v>
@@ -2228,7 +2224,7 @@
         <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>38</v>
@@ -2239,10 +2235,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>38</v>
@@ -2264,13 +2260,13 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2321,7 +2317,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>39</v>
@@ -2330,10 +2326,10 @@
         <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>38</v>
@@ -2344,10 +2340,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>38</v>
@@ -2369,13 +2365,13 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2426,7 +2422,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>39</v>
@@ -2435,10 +2431,10 @@
         <v>40</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>38</v>
@@ -2449,7 +2445,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2472,7 +2468,7 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>108</v>
@@ -2575,7 +2571,7 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>114</v>
@@ -2622,7 +2618,7 @@
         <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB13" t="s" s="2">
         <v>117</v>
@@ -2631,7 +2627,7 @@
         <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>118</v>
@@ -2646,7 +2642,7 @@
         <v>38</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>38</v>
@@ -2680,7 +2676,7 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>120</v>
@@ -2757,7 +2753,7 @@
         <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -2852,13 +2848,13 @@
         <v>38</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -2957,13 +2953,13 @@
         <v>38</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -2991,7 +2987,7 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>135</v>
@@ -3064,13 +3060,13 @@
         <v>38</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -3171,7 +3167,7 @@
         <v>38</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>144</v>
@@ -3205,7 +3201,7 @@
         <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>146</v>
@@ -3276,7 +3272,7 @@
         <v>38</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>152</v>
@@ -3310,7 +3306,7 @@
         <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>154</v>
@@ -3383,7 +3379,7 @@
         <v>161</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>162</v>
@@ -3488,7 +3484,7 @@
         <v>38</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>168</v>
@@ -3591,7 +3587,7 @@
         <v>38</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>173</v>
@@ -3694,7 +3690,7 @@
         <v>38</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>178</v>
@@ -3797,7 +3793,7 @@
         <v>38</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>183</v>
@@ -3934,7 +3930,7 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>108</v>
@@ -4037,7 +4033,7 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>114</v>
@@ -4084,7 +4080,7 @@
         <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>117</v>
@@ -4093,7 +4089,7 @@
         <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>118</v>
@@ -4108,7 +4104,7 @@
         <v>38</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>38</v>
@@ -4213,7 +4209,7 @@
         <v>197</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>38</v>
@@ -4320,7 +4316,7 @@
         <v>197</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>38</v>
@@ -4425,7 +4421,7 @@
         <v>38</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>38</v>
@@ -4528,7 +4524,7 @@
         <v>161</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>38</v>
@@ -4539,7 +4535,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4562,7 +4558,7 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>108</v>
@@ -4642,7 +4638,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4665,7 +4661,7 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>114</v>
@@ -4736,7 +4732,7 @@
         <v>38</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>38</v>
@@ -4747,11 +4743,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4770,13 +4766,13 @@
         <v>47</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>116</v>
@@ -4831,7 +4827,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4843,18 +4839,18 @@
         <v>38</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4880,10 +4876,10 @@
         <v>207</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4934,7 +4930,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4946,7 +4942,7 @@
         <v>38</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>38</v>
@@ -4957,7 +4953,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4983,10 +4979,10 @@
         <v>214</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5037,7 +5033,7 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -5049,7 +5045,7 @@
         <v>38</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>38</v>
@@ -5060,7 +5056,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5083,7 +5079,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>108</v>
@@ -5163,7 +5159,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5186,7 +5182,7 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>114</v>
@@ -5257,7 +5253,7 @@
         <v>38</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>38</v>
@@ -5268,11 +5264,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5291,13 +5287,13 @@
         <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>116</v>
@@ -5352,7 +5348,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5364,18 +5360,18 @@
         <v>38</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5401,10 +5397,10 @@
         <v>207</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5431,14 +5427,14 @@
         <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="X40" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="X40" t="s" s="2">
+      <c r="Y40" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>38</v>
       </c>
@@ -5455,7 +5451,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5467,7 +5463,7 @@
         <v>38</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>38</v>
@@ -5478,7 +5474,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5501,13 +5497,13 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5558,7 +5554,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5570,7 +5566,7 @@
         <v>38</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>38</v>
@@ -5581,7 +5577,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5604,13 +5600,13 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5661,7 +5657,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5673,7 +5669,7 @@
         <v>38</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>38</v>
@@ -5684,7 +5680,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5707,16 +5703,16 @@
         <v>47</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5766,7 +5762,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5778,7 +5774,7 @@
         <v>38</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>38</v>
@@ -5789,7 +5785,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5812,7 +5808,7 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>108</v>
@@ -5892,7 +5888,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5915,7 +5911,7 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>114</v>
@@ -5962,7 +5958,7 @@
         <v>38</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>117</v>
@@ -5971,7 +5967,7 @@
         <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>118</v>
@@ -5986,7 +5982,7 @@
         <v>38</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>38</v>
@@ -5997,10 +5993,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>38</v>
@@ -6022,16 +6018,16 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6093,7 +6089,7 @@
         <v>38</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>38</v>
@@ -6104,7 +6100,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6127,19 +6123,19 @@
         <v>47</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>38</v>
@@ -6188,30 +6184,30 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6234,23 +6230,23 @@
         <v>47</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P48" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="Q48" t="s" s="2">
         <v>38</v>
@@ -6274,51 +6270,51 @@
         <v>149</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE48" t="s" s="2">
+      <c r="AF48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6341,17 +6337,17 @@
         <v>47</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>38</v>
@@ -6400,30 +6396,30 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6446,17 +6442,17 @@
         <v>47</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>38</v>
@@ -6505,30 +6501,30 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH50" t="s" s="2">
+      <c r="AI50" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>289</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6551,19 +6547,19 @@
         <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>38</v>
@@ -6612,30 +6608,30 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6661,10 +6657,10 @@
         <v>214</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6715,7 +6711,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6727,7 +6723,7 @@
         <v>38</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>38</v>
@@ -6738,7 +6734,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6761,7 +6757,7 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>108</v>
@@ -6841,7 +6837,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6864,7 +6860,7 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>114</v>
@@ -6935,7 +6931,7 @@
         <v>38</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>38</v>
@@ -6946,11 +6942,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -6969,13 +6965,13 @@
         <v>47</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>116</v>
@@ -7030,7 +7026,7 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
@@ -7042,18 +7038,18 @@
         <v>38</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7079,10 +7075,10 @@
         <v>207</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7133,7 +7129,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -7145,7 +7141,7 @@
         <v>38</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>38</v>
@@ -7156,7 +7152,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7182,10 +7178,10 @@
         <v>214</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7236,7 +7232,7 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
@@ -7248,7 +7244,7 @@
         <v>38</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>38</v>
@@ -7259,7 +7255,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7282,7 +7278,7 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>108</v>
@@ -7362,7 +7358,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7385,7 +7381,7 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>114</v>
@@ -7456,7 +7452,7 @@
         <v>38</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>38</v>
@@ -7467,11 +7463,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7490,13 +7486,13 @@
         <v>47</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>116</v>
@@ -7551,7 +7547,7 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
@@ -7563,18 +7559,18 @@
         <v>38</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7600,10 +7596,10 @@
         <v>207</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7654,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
@@ -7666,7 +7662,7 @@
         <v>38</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>38</v>
@@ -7677,7 +7673,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7703,10 +7699,10 @@
         <v>214</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7757,7 +7753,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7769,7 +7765,7 @@
         <v>38</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>38</v>
@@ -7780,7 +7776,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7803,7 +7799,7 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>108</v>
@@ -7883,7 +7879,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7906,7 +7902,7 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>114</v>
@@ -7977,7 +7973,7 @@
         <v>38</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>38</v>
@@ -7988,11 +7984,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8011,13 +8007,13 @@
         <v>47</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>116</v>
@@ -8072,7 +8068,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
@@ -8084,18 +8080,18 @@
         <v>38</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8121,10 +8117,10 @@
         <v>207</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8175,7 +8171,7 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>46</v>
@@ -8187,7 +8183,7 @@
         <v>38</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>38</v>
@@ -8198,7 +8194,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8224,10 +8220,10 @@
         <v>207</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8278,7 +8274,7 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>46</v>
@@ -8290,7 +8286,7 @@
         <v>38</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>38</v>
@@ -8301,7 +8297,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8327,10 +8323,10 @@
         <v>214</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8381,7 +8377,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
@@ -8393,7 +8389,7 @@
         <v>38</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>38</v>
@@ -8404,7 +8400,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8427,7 +8423,7 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>108</v>
@@ -8507,7 +8503,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8530,7 +8526,7 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>114</v>
@@ -8601,7 +8597,7 @@
         <v>38</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>38</v>
@@ -8612,11 +8608,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -8635,13 +8631,13 @@
         <v>47</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>116</v>
@@ -8696,7 +8692,7 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
@@ -8708,18 +8704,18 @@
         <v>38</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8745,10 +8741,10 @@
         <v>207</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8775,14 +8771,14 @@
         <v>38</v>
       </c>
       <c r="W72" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="X72" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="X72" t="s" s="2">
+      <c r="Y72" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>38</v>
       </c>
@@ -8799,7 +8795,7 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>39</v>
@@ -8811,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>38</v>
@@ -8822,7 +8818,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8845,13 +8841,13 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K73" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="L73" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8902,7 +8898,7 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>39</v>
@@ -8914,7 +8910,7 @@
         <v>38</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>38</v>
@@ -8925,7 +8921,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8948,13 +8944,13 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K74" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="L74" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9005,7 +9001,7 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>39</v>
@@ -9017,7 +9013,7 @@
         <v>38</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>38</v>
@@ -9028,7 +9024,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9051,13 +9047,13 @@
         <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9108,7 +9104,7 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
@@ -9120,7 +9116,7 @@
         <v>38</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>38</v>
@@ -9131,7 +9127,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9154,17 +9150,17 @@
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>38</v>
@@ -9213,7 +9209,7 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>39</v>
@@ -9225,7 +9221,7 @@
         <v>38</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>38</v>
